--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3986.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3986.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3986</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>James Douglas Sheahan Neesham</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3464</t>
+          <t>3464</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3466</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3469</t>
+          <t>3469</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3578</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3579</t>
+          <t>3579</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3593</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -908,7 +973,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>01/01/2014</t>
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3596</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1020,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>28/01/2014</t>
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3685</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3686</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1160,7 +1223,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3687</t>
+          <t>3687</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3713</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3717</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3823</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3825</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3826</t>
+          <t>3826</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1480,7 +1542,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1532,7 +1594,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1584,7 +1646,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1636,7 +1698,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1688,7 +1750,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1740,7 +1802,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1792,7 +1854,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1844,7 +1906,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1896,7 +1958,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1948,7 +2010,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2000,7 +2062,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2052,7 +2114,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2104,7 +2166,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2156,7 +2218,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2196,7 +2258,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>01/03/2017</t>
@@ -2204,7 +2265,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2256,7 +2317,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2308,7 +2369,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2360,7 +2421,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2412,7 +2473,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2464,7 +2525,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2516,7 +2577,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2568,7 +2629,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2620,7 +2681,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2672,7 +2733,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2724,7 +2785,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2764,7 +2825,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -2772,7 +2832,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2824,7 +2884,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2864,7 +2924,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -2872,7 +2931,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2912,7 +2971,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -2920,7 +2978,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2972,7 +3030,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3012,7 +3070,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -3020,7 +3077,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3072,7 +3129,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3112,7 +3169,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -3120,7 +3176,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3172,7 +3228,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3224,7 +3280,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3276,7 +3332,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3328,7 +3384,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3380,7 +3436,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3432,7 +3488,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3484,7 +3540,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3536,7 +3592,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3588,7 +3644,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3640,7 +3696,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3692,7 +3748,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3732,7 +3788,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>20/03/2021</t>
@@ -3740,7 +3795,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3792,7 +3847,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3844,7 +3899,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3896,7 +3951,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3948,7 +4003,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4000,7 +4055,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4052,7 +4107,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4104,7 +4159,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4143,7 +4198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4165,7 +4220,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4202,7 +4257,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3464</t>
+          <t>3464</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4239,7 +4294,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3466</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4276,7 +4331,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3469</t>
+          <t>3469</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4313,7 +4368,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4350,7 +4405,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4387,7 +4442,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3578</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4424,7 +4479,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3579</t>
+          <t>3579</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4461,7 +4516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3593</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4498,7 +4553,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3596</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4535,7 +4590,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4572,7 +4627,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4609,7 +4664,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3685</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4646,7 +4701,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3686</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4683,7 +4738,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3687</t>
+          <t>3687</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4720,7 +4775,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3713</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4757,7 +4812,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3717</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4794,7 +4849,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3823</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4831,7 +4886,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3825</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4868,7 +4923,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3826</t>
+          <t>3826</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4905,7 +4960,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4942,7 +4997,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4979,7 +5034,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5016,7 +5071,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5053,7 +5108,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5090,7 +5145,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5127,7 +5182,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5164,7 +5219,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5201,7 +5256,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5238,7 +5293,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5275,7 +5330,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5312,7 +5367,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5349,7 +5404,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5386,7 +5441,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5423,7 +5478,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5460,7 +5515,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5497,7 +5552,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5534,7 +5589,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5571,7 +5626,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5608,7 +5663,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5645,7 +5700,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5682,7 +5737,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5719,7 +5774,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5756,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5793,7 +5848,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5830,7 +5885,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5867,7 +5922,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5904,7 +5959,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5941,7 +5996,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5978,7 +6033,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6015,7 +6070,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6052,7 +6107,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6089,7 +6144,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6126,7 +6181,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6163,7 +6218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6200,7 +6255,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6237,7 +6292,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6274,7 +6329,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6311,7 +6366,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6348,7 +6403,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6385,7 +6440,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6422,7 +6477,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6459,7 +6514,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6496,7 +6551,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6533,7 +6588,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6570,7 +6625,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6607,7 +6662,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6644,7 +6699,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6670,6 +6725,507 @@
       <c r="G68" t="inlineStr">
         <is>
           <t>0/65</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9.39%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6.33%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.28%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10.91%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14.88%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3986.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3986.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6788,9 +6789,6 @@
       <c r="B2" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -6833,15 +6831,433 @@
           <t>4333</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6.33%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.28%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10.91%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14.88%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6851,13 +7267,6 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6865,27 +7274,14 @@
           <t>4341</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>7</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.73%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -6897,13 +7293,6 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6913,13 +7302,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6929,13 +7311,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6945,13 +7320,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6961,13 +7329,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6975,27 +7336,14 @@
           <t>4410</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>6</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.33%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7005,29 +7353,12 @@
           <t>4423</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.28%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7035,15 +7366,14 @@
           <t>4452</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7053,29 +7383,12 @@
           <t>4453</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10.91%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7083,27 +7396,14 @@
           <t>4455</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>7</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.26%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -7113,29 +7413,12 @@
           <t>4639</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.47%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7145,13 +7428,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7161,13 +7437,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7175,29 +7444,12 @@
           <t>4648</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.44%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7205,29 +7457,12 @@
           <t>4649</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>14.88%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3986.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3986.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1236,7 +1235,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -6789,6 +6788,9 @@
       <c r="B2" t="n">
         <v>6</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>YES</t>
@@ -6831,6 +6833,10 @@
           <t>4333</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6843,6 +6849,10 @@
           <t>4337</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6885,6 +6895,10 @@
           <t>4346</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6897,6 +6911,10 @@
           <t>4353</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6909,6 +6927,10 @@
           <t>4355</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6921,6 +6943,10 @@
           <t>4402</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6933,6 +6959,10 @@
           <t>4406</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7008,6 +7038,9 @@
       <c r="B14" t="n">
         <v>6</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7110,6 +7143,10 @@
           <t>4642</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7122,6 +7159,10 @@
           <t>4647</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7187,282 +7228,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4311</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4315</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4452</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3986.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3986.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,6 +972,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>01/01/2014</t>
@@ -1020,6 +1020,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>28/01/2014</t>
@@ -1223,6 +1224,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -2258,6 +2260,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>01/03/2017</t>
@@ -2825,6 +2828,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -2924,6 +2928,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -2971,6 +2976,7 @@
           <t>48</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -3070,6 +3076,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -3169,6 +3176,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -3788,6 +3796,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>20/03/2021</t>
@@ -6731,505 +6740,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4315</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4328</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9.39%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.73%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.33%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.28%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4452</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10.91%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.26%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.47%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.44%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>14.88%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>